--- a/NC12/Documenti/Matrice_di_Tracciabilita.xlsx
+++ b/NC12/Documenti/Matrice_di_Tracciabilita.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afuci\Desktop\FRAA\NC12\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D875E3-AE8B-4097-8E02-DCA12F32C0FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
   <si>
     <t>Project Name:</t>
   </si>
@@ -292,15 +293,6 @@
     <t>GUI ACCETTAZIONE, ACCETTAZIONE MANAGEMENT, ARCHIVE</t>
   </si>
   <si>
-    <t>GUI  UTENTE,UTENTE MANAGEMENT, ARCHIVE</t>
-  </si>
-  <si>
-    <t>GUI UTENTE, UTENTE MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUI UTENTE </t>
-  </si>
-  <si>
     <t>GUI IMPIEGATO</t>
   </si>
   <si>
@@ -308,9 +300,6 @@
   </si>
   <si>
     <t>GUI CODE, CODA MANAGEMENT, ARCHIVE</t>
-  </si>
-  <si>
-    <t>ControlPanelView.java, Gestione.java, DataAcces.java</t>
   </si>
   <si>
     <t>LoginlView.java, Accesso..java, DataAcces.java</t>
@@ -397,15 +386,54 @@
 NC12\Documenti\Testing\NC12_TSR</t>
   </si>
   <si>
-    <t>E</t>
+    <t>ControlPanelView.java, Gestione.java</t>
+  </si>
+  <si>
+    <t>GUI  VISUALIZZAZIONE PRENOTAZIONE, PRENOTAZIONE MANAGEMENT, ARCHIVE</t>
+  </si>
+  <si>
+    <t>Prenotazione.vue, Prenotazione.js, Strutture.js, Operazione.js, PrenotazioneController.java</t>
+  </si>
+  <si>
+    <t>VisualizaPrenotazioni.vue,  Prenotazione.js, Strutture.js, Operazione.js, PrenotazioneController.java</t>
+  </si>
+  <si>
+    <t>Convalida.vue, Prenotazioni.js, PrenotazioneController.java</t>
+  </si>
+  <si>
+    <t>GUI  CONVALIDA , PRENOTAZIONE MANAGEMENT, ARCHIVE</t>
+  </si>
+  <si>
+    <t>GUI  LOGIN ,UTENTE MANAGEMENT, ARCHIVE</t>
+  </si>
+  <si>
+    <t>Login.vue, Login.js, LoginController.java</t>
+  </si>
+  <si>
+    <t>GUI REGISTRAZIONE, UTENTE MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Registration.vue, Autentication.js, LoginController.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI HOME UTENTE </t>
+  </si>
+  <si>
+    <t>App.vue</t>
+  </si>
+  <si>
+    <t>VisualizzaCoda.vue,  Prenotazione.js, Strutture.js, Operazione.js, ViewCoda.java</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -514,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,79 +559,82 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="1"/>
+    <cellStyle name="Normale 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,41 +911,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="59.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="38.88671875" customWidth="1"/>
-    <col min="13" max="13" width="45.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" customWidth="1"/>
-    <col min="16" max="16" width="67.6640625" customWidth="1"/>
-    <col min="17" max="17" width="60.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="67.7109375" customWidth="1"/>
+    <col min="17" max="17" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -926,12 +957,12 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -947,558 +978,574 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="N6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="G8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="K8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="9" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="C9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="13" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="17" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="15" t="s">
+    <row r="14" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>20</v>
+      <c r="C14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="O1:P1"/>

--- a/NC12/Documenti/Matrice_di_Tracciabilita.xlsx
+++ b/NC12/Documenti/Matrice_di_Tracciabilita.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afuci\Desktop\FRAA\NC12\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\FRAA\NC12\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D875E3-AE8B-4097-8E02-DCA12F32C0FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -335,12 +334,6 @@
 NC12\Documenti\Testing\NC12_TSR</t>
   </si>
   <si>
-    <t>TC_GPi_1</t>
-  </si>
-  <si>
-    <t>Per il seguente testing non avendo trovato un framework adatto che permettesse il system testing dell'applicazione desktop, si e garantita la funzionalita eseguendo l'acceptance testing.</t>
-  </si>
-  <si>
     <t>OM_GP-1</t>
   </si>
   <si>
@@ -426,12 +419,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Per il seguente testing non avendo trovato un framework adatto che permettesse il system testing dell'applicazione desktop, si e garantita la funzionalita eseguendo il testing manualmente.</t>
+  </si>
+  <si>
+    <t>TC_GPI_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -634,7 +633,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -911,34 +910,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="38.85546875" customWidth="1"/>
-    <col min="13" max="13" width="45.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="38.88671875" customWidth="1"/>
+    <col min="13" max="13" width="45.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +960,7 @@
       <c r="P1" s="27"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -984,7 +983,7 @@
       <c r="P2" s="27"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>57</v>
@@ -1066,7 +1065,7 @@
         <v>67</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>76</v>
@@ -1075,7 +1074,7 @@
         <v>85</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>95</v>
@@ -1088,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>33</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>58</v>
@@ -1117,27 +1116,27 @@
         <v>68</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>97</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>34</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>59</v>
@@ -1166,16 +1165,16 @@
         <v>69</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>75</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>96</v>
@@ -1188,7 +1187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
@@ -1213,14 +1212,14 @@
         <v>71</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="17"/>
@@ -1229,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>57</v>
@@ -1258,27 +1257,27 @@
         <v>70</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
         <v>86</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
@@ -1303,27 +1302,27 @@
         <v>72</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>93</v>
       </c>
       <c r="O9" s="17"/>
       <c r="P9" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
@@ -1348,27 +1347,27 @@
         <v>73</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>94</v>
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1391,14 +1390,14 @@
         <v>74</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="17"/>
@@ -1407,7 +1406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="18" t="s">
@@ -1429,10 +1428,10 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
@@ -1446,13 +1445,13 @@
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -1466,16 +1465,16 @@
         <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20" t="s">
@@ -1491,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>51</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>60</v>
@@ -1520,32 +1519,32 @@
         <v>66</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
         <v>89</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N14" s="24" t="s">
         <v>98</v>
       </c>
       <c r="O14" s="24"/>
       <c r="P14" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="24" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="O1:P1"/>
